--- a/best_training_predictions.v4.xlsx
+++ b/best_training_predictions.v4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muhammedlutfiturkcan/hbbtv/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67AE5AED-4446-B24A-8023-4BD59718F48E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E326875D-F44A-E74B-8AA7-22DB904D06FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" activeTab="3" xr2:uid="{9B60B830-4793-044F-B689-8867955F7F02}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" activeTab="2" xr2:uid="{9B60B830-4793-044F-B689-8867955F7F02}"/>
   </bookViews>
   <sheets>
     <sheet name="test_prediction" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="211">
   <si>
     <t>program_name</t>
   </si>
@@ -669,6 +669,9 @@
   </si>
   <si>
     <t>Turkiye-Hollanda 2022 WC Eleme</t>
+  </si>
+  <si>
+    <t>match_stage_original</t>
   </si>
 </sst>
 </file>
@@ -769,7 +772,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2682,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C92B7F76-6F94-3449-94FC-B17A4AB6C01B}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2699,11 +2702,12 @@
     <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="44.5" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2732,25 +2736,28 @@
         <v>80</v>
       </c>
       <c r="J1" t="s">
+        <v>210</v>
+      </c>
+      <c r="K1" t="s">
         <v>81</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>82</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>127</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>83</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>126</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>84</v>
       </c>
@@ -2778,29 +2785,32 @@
       <c r="I2" t="s">
         <v>88</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>88</v>
+      </c>
+      <c r="K2">
         <v>3.8834032999999999</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4.9668226000000004</v>
       </c>
-      <c r="L2">
-        <f>M2*0.8</f>
+      <c r="M2">
+        <f t="shared" ref="M2:M37" si="0">N2*0.8</f>
         <v>3.2367329560000004</v>
       </c>
-      <c r="M2">
-        <f>(J2*0.85)+(K2*0.15)</f>
+      <c r="N2">
+        <f t="shared" ref="N2:N37" si="1">(K2*0.85)+(L2*0.15)</f>
         <v>4.0459161950000002</v>
       </c>
-      <c r="N2">
-        <f>M2*1.2</f>
+      <c r="O2">
+        <f t="shared" ref="O2:O37" si="2">N2*1.2</f>
         <v>4.8550994340000004</v>
       </c>
-      <c r="O2" s="7" t="s">
+      <c r="P2" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2828,29 +2838,32 @@
       <c r="I3" t="s">
         <v>88</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K3">
         <v>1.2913733999999999</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>2.7476408000000001</v>
       </c>
-      <c r="L3">
-        <f>M3*0.8</f>
+      <c r="M3">
+        <f t="shared" si="0"/>
         <v>1.2078508079999999</v>
       </c>
-      <c r="M3">
-        <f>(J3*0.85)+(K3*0.15)</f>
+      <c r="N3">
+        <f t="shared" si="1"/>
         <v>1.5098135099999999</v>
       </c>
-      <c r="N3">
-        <f>M3*1.2</f>
+      <c r="O3">
+        <f t="shared" si="2"/>
         <v>1.8117762119999998</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P3" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -2878,29 +2891,32 @@
       <c r="I4" t="s">
         <v>88</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4">
         <v>2.7927379999999999</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>5.8401836999999999</v>
       </c>
-      <c r="L4">
-        <f>M4*0.8</f>
+      <c r="M4">
+        <f t="shared" si="0"/>
         <v>2.599883884</v>
       </c>
-      <c r="M4">
-        <f>(J4*0.85)+(K4*0.15)</f>
+      <c r="N4">
+        <f t="shared" si="1"/>
         <v>3.2498548549999997</v>
       </c>
-      <c r="N4">
-        <f>M4*1.2</f>
+      <c r="O4">
+        <f t="shared" si="2"/>
         <v>3.8998258259999994</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -2928,29 +2944,32 @@
       <c r="I5" t="s">
         <v>88</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5">
         <v>3.0251712999999998</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4.7467765999999996</v>
       </c>
-      <c r="L5">
-        <f>M5*0.8</f>
+      <c r="M5">
+        <f t="shared" si="0"/>
         <v>2.6267296760000001</v>
       </c>
-      <c r="M5">
-        <f>(J5*0.85)+(K5*0.15)</f>
+      <c r="N5">
+        <f t="shared" si="1"/>
         <v>3.2834120949999996</v>
       </c>
-      <c r="N5">
-        <f>M5*1.2</f>
+      <c r="O5">
+        <f t="shared" si="2"/>
         <v>3.9400945139999992</v>
       </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>95</v>
       </c>
@@ -2978,29 +2997,32 @@
       <c r="I6" t="s">
         <v>88</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6">
         <v>2.3510249999999999</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>3.6030376</v>
       </c>
-      <c r="L6">
-        <f>M6*0.8</f>
+      <c r="M6">
+        <f t="shared" si="0"/>
         <v>2.0310615120000004</v>
       </c>
-      <c r="M6">
-        <f>(J6*0.85)+(K6*0.15)</f>
+      <c r="N6">
+        <f t="shared" si="1"/>
         <v>2.5388268900000002</v>
       </c>
-      <c r="N6">
-        <f>M6*1.2</f>
+      <c r="O6">
+        <f t="shared" si="2"/>
         <v>3.0465922679999999</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="P6" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>97</v>
       </c>
@@ -3028,29 +3050,32 @@
       <c r="I7" t="s">
         <v>88</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7">
         <v>3.1361005</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5.2603299999999997</v>
       </c>
-      <c r="L7">
-        <f>M7*0.8</f>
+      <c r="M7">
+        <f t="shared" si="0"/>
         <v>2.7637879400000003</v>
       </c>
-      <c r="M7">
-        <f>(J7*0.85)+(K7*0.15)</f>
+      <c r="N7">
+        <f t="shared" si="1"/>
         <v>3.4547349249999999</v>
       </c>
-      <c r="N7">
-        <f>M7*1.2</f>
+      <c r="O7">
+        <f t="shared" si="2"/>
         <v>4.1456819099999995</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>98</v>
       </c>
@@ -3078,29 +3103,32 @@
       <c r="I8" t="s">
         <v>88</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8">
         <v>4.2617197000000004</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5.4067755000000002</v>
       </c>
-      <c r="L8">
-        <f>M8*0.8</f>
+      <c r="M8">
+        <f t="shared" si="0"/>
         <v>3.5467824560000007</v>
       </c>
-      <c r="M8">
-        <f>(J8*0.85)+(K8*0.15)</f>
+      <c r="N8">
+        <f t="shared" si="1"/>
         <v>4.4334780700000005</v>
       </c>
-      <c r="N8">
-        <f>M8*1.2</f>
+      <c r="O8">
+        <f t="shared" si="2"/>
         <v>5.3201736840000002</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>99</v>
       </c>
@@ -3128,29 +3156,32 @@
       <c r="I9" t="s">
         <v>88</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>88</v>
+      </c>
+      <c r="K9">
         <v>0.82933027000000004</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1.7382424000000001</v>
       </c>
-      <c r="L9">
-        <f>M9*0.8</f>
+      <c r="M9">
+        <f t="shared" si="0"/>
         <v>0.77253367160000008</v>
       </c>
-      <c r="M9">
-        <f>(J9*0.85)+(K9*0.15)</f>
+      <c r="N9">
+        <f t="shared" si="1"/>
         <v>0.96566708950000002</v>
       </c>
-      <c r="N9">
-        <f>M9*1.2</f>
+      <c r="O9">
+        <f t="shared" si="2"/>
         <v>1.1588005074000001</v>
       </c>
-      <c r="O9" s="7" t="s">
+      <c r="P9" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -3178,29 +3209,32 @@
       <c r="I10" t="s">
         <v>88</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K10">
         <v>2.1737072</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>4.1685590000000001</v>
       </c>
-      <c r="L10">
-        <f>M10*0.8</f>
+      <c r="M10">
+        <f t="shared" si="0"/>
         <v>1.978347976</v>
       </c>
-      <c r="M10">
-        <f>(J10*0.85)+(K10*0.15)</f>
+      <c r="N10">
+        <f t="shared" si="1"/>
         <v>2.4729349699999998</v>
       </c>
-      <c r="N10">
-        <f>M10*1.2</f>
+      <c r="O10">
+        <f t="shared" si="2"/>
         <v>2.9675219639999999</v>
       </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -3228,29 +3262,32 @@
       <c r="I11" t="s">
         <v>88</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11">
         <v>4.7551394</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5.7437053000000002</v>
       </c>
-      <c r="L11">
-        <f>M11*0.8</f>
+      <c r="M11">
+        <f t="shared" si="0"/>
         <v>3.9227394279999999</v>
       </c>
-      <c r="M11">
-        <f>(J11*0.85)+(K11*0.15)</f>
+      <c r="N11">
+        <f t="shared" si="1"/>
         <v>4.9034242849999998</v>
       </c>
-      <c r="N11">
-        <f>M11*1.2</f>
+      <c r="O11">
+        <f t="shared" si="2"/>
         <v>5.8841091419999998</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -3278,29 +3315,32 @@
       <c r="I12" t="s">
         <v>102</v>
       </c>
-      <c r="J12">
-        <v>10.670711000000001</v>
+      <c r="J12" t="s">
+        <v>88</v>
       </c>
       <c r="K12">
         <v>10.670711000000001</v>
       </c>
       <c r="L12">
-        <f>M12*0.8</f>
+        <v>10.670711000000001</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
         <v>8.5365688000000013</v>
       </c>
-      <c r="M12">
-        <f>(J12*0.85)+(K12*0.15)</f>
+      <c r="N12">
+        <f t="shared" si="1"/>
         <v>10.670711000000001</v>
       </c>
-      <c r="N12">
-        <f>M12*1.2</f>
+      <c r="O12">
+        <f t="shared" si="2"/>
         <v>12.8048532</v>
       </c>
-      <c r="O12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>103</v>
       </c>
@@ -3328,29 +3368,32 @@
       <c r="I13" t="s">
         <v>88</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13">
         <v>4.7613029999999998</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>5.677816</v>
       </c>
-      <c r="L13">
-        <f>M13*0.8</f>
+      <c r="M13">
+        <f t="shared" si="0"/>
         <v>3.9190239600000001</v>
       </c>
-      <c r="M13">
-        <f>(J13*0.85)+(K13*0.15)</f>
+      <c r="N13">
+        <f t="shared" si="1"/>
         <v>4.8987799499999998</v>
       </c>
-      <c r="N13">
-        <f>M13*1.2</f>
+      <c r="O13">
+        <f t="shared" si="2"/>
         <v>5.8785359399999999</v>
       </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>104</v>
       </c>
@@ -3378,29 +3421,32 @@
       <c r="I14" t="s">
         <v>88</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="s">
+        <v>88</v>
+      </c>
+      <c r="K14">
         <v>0.96942830000000002</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>2.1309629999999999</v>
       </c>
-      <c r="L14">
-        <f>M14*0.8</f>
+      <c r="M14">
+        <f t="shared" si="0"/>
         <v>0.91492680399999993</v>
       </c>
-      <c r="M14">
-        <f>(J14*0.85)+(K14*0.15)</f>
+      <c r="N14">
+        <f t="shared" si="1"/>
         <v>1.1436585049999999</v>
       </c>
-      <c r="N14">
-        <f>M14*1.2</f>
+      <c r="O14">
+        <f t="shared" si="2"/>
         <v>1.3723902059999997</v>
       </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>105</v>
       </c>
@@ -3428,29 +3474,32 @@
       <c r="I15" t="s">
         <v>88</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="s">
+        <v>88</v>
+      </c>
+      <c r="K15">
         <v>2.0389127999999999</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>4.2183723000000004</v>
       </c>
-      <c r="L15">
-        <f>M15*0.8</f>
+      <c r="M15">
+        <f t="shared" si="0"/>
         <v>1.8926653800000002</v>
       </c>
-      <c r="M15">
-        <f>(J15*0.85)+(K15*0.15)</f>
+      <c r="N15">
+        <f t="shared" si="1"/>
         <v>2.3658317250000001</v>
       </c>
-      <c r="N15">
-        <f>M15*1.2</f>
+      <c r="O15">
+        <f t="shared" si="2"/>
         <v>2.8389980700000002</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="P15" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>106</v>
       </c>
@@ -3478,29 +3527,32 @@
       <c r="I16" t="s">
         <v>88</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16">
         <v>2.8637838000000002</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3.7752373000000001</v>
       </c>
-      <c r="L16">
-        <f>M16*0.8</f>
+      <c r="M16">
+        <f t="shared" si="0"/>
         <v>2.4004014600000003</v>
       </c>
-      <c r="M16">
-        <f>(J16*0.85)+(K16*0.15)</f>
+      <c r="N16">
+        <f t="shared" si="1"/>
         <v>3.0005018250000002</v>
       </c>
-      <c r="N16">
-        <f>M16*1.2</f>
+      <c r="O16">
+        <f t="shared" si="2"/>
         <v>3.60060219</v>
       </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>107</v>
       </c>
@@ -3528,29 +3580,32 @@
       <c r="I17" t="s">
         <v>88</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="s">
+        <v>88</v>
+      </c>
+      <c r="K17">
         <v>0.83841270000000001</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.9690974000000001</v>
       </c>
-      <c r="L17">
-        <f>M17*0.8</f>
+      <c r="M17">
+        <f t="shared" si="0"/>
         <v>0.80641232400000007</v>
       </c>
-      <c r="M17">
-        <f>(J17*0.85)+(K17*0.15)</f>
+      <c r="N17">
+        <f t="shared" si="1"/>
         <v>1.0080154050000001</v>
       </c>
-      <c r="N17">
-        <f>M17*1.2</f>
+      <c r="O17">
+        <f t="shared" si="2"/>
         <v>1.2096184860000001</v>
       </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -3578,29 +3633,32 @@
       <c r="I18" t="s">
         <v>88</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K18">
         <v>2.537709</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>4.9513619999999996</v>
       </c>
-      <c r="L18">
-        <f>M18*0.8</f>
+      <c r="M18">
+        <f t="shared" si="0"/>
         <v>2.3198055599999998</v>
       </c>
-      <c r="M18">
-        <f>(J18*0.85)+(K18*0.15)</f>
+      <c r="N18">
+        <f t="shared" si="1"/>
         <v>2.8997569499999996</v>
       </c>
-      <c r="N18">
-        <f>M18*1.2</f>
+      <c r="O18">
+        <f t="shared" si="2"/>
         <v>3.4797083399999993</v>
       </c>
-      <c r="O18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>109</v>
       </c>
@@ -3628,29 +3686,32 @@
       <c r="I19" t="s">
         <v>88</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19">
         <v>4.7331120000000002</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>6.2711350000000001</v>
       </c>
-      <c r="L19">
-        <f>M19*0.8</f>
+      <c r="M19">
+        <f t="shared" si="0"/>
         <v>3.9710523600000003</v>
       </c>
-      <c r="M19">
-        <f>(J19*0.85)+(K19*0.15)</f>
+      <c r="N19">
+        <f t="shared" si="1"/>
         <v>4.9638154500000002</v>
       </c>
-      <c r="N19">
-        <f>M19*1.2</f>
+      <c r="O19">
+        <f t="shared" si="2"/>
         <v>5.9565785399999998</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>110</v>
       </c>
@@ -3678,29 +3739,32 @@
       <c r="I20" t="s">
         <v>88</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20">
         <v>0.83841270000000001</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>1.9690974000000001</v>
       </c>
-      <c r="L20">
-        <f>M20*0.8</f>
+      <c r="M20">
+        <f t="shared" si="0"/>
         <v>0.80641232400000007</v>
       </c>
-      <c r="M20">
-        <f>(J20*0.85)+(K20*0.15)</f>
+      <c r="N20">
+        <f t="shared" si="1"/>
         <v>1.0080154050000001</v>
       </c>
-      <c r="N20">
-        <f>M20*1.2</f>
+      <c r="O20">
+        <f t="shared" si="2"/>
         <v>1.2096184860000001</v>
       </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -3728,29 +3792,32 @@
       <c r="I21" t="s">
         <v>88</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="s">
+        <v>88</v>
+      </c>
+      <c r="K21">
         <v>2.1737072</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>4.1685590000000001</v>
       </c>
-      <c r="L21">
-        <f>M21*0.8</f>
+      <c r="M21">
+        <f t="shared" si="0"/>
         <v>1.978347976</v>
       </c>
-      <c r="M21">
-        <f>(J21*0.85)+(K21*0.15)</f>
+      <c r="N21">
+        <f t="shared" si="1"/>
         <v>2.4729349699999998</v>
       </c>
-      <c r="N21">
-        <f>M21*1.2</f>
+      <c r="O21">
+        <f t="shared" si="2"/>
         <v>2.9675219639999999</v>
       </c>
-      <c r="O21" s="7" t="s">
+      <c r="P21" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>112</v>
       </c>
@@ -3778,29 +3845,32 @@
       <c r="I22" t="s">
         <v>88</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22">
         <v>5.861891</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>7.197012</v>
       </c>
-      <c r="L22">
-        <f>M22*0.8</f>
+      <c r="M22">
+        <f t="shared" si="0"/>
         <v>4.8497273199999995</v>
       </c>
-      <c r="M22">
-        <f>(J22*0.85)+(K22*0.15)</f>
+      <c r="N22">
+        <f t="shared" si="1"/>
         <v>6.0621591499999994</v>
       </c>
-      <c r="N22">
-        <f>M22*1.2</f>
+      <c r="O22">
+        <f t="shared" si="2"/>
         <v>7.2745909799999993</v>
       </c>
-      <c r="O22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>204</v>
       </c>
@@ -3828,29 +3898,32 @@
       <c r="I23" t="s">
         <v>88</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23">
         <v>1.2905321000000001</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>2.9254264999999999</v>
       </c>
-      <c r="L23">
-        <f>M23*0.8</f>
+      <c r="M23">
+        <f t="shared" si="0"/>
         <v>1.228613008</v>
       </c>
-      <c r="M23">
-        <f>(J23*0.85)+(K23*0.15)</f>
+      <c r="N23">
+        <f t="shared" si="1"/>
         <v>1.5357662599999999</v>
       </c>
-      <c r="N23">
-        <f>M23*1.2</f>
+      <c r="O23">
+        <f t="shared" si="2"/>
         <v>1.8429195119999999</v>
       </c>
-      <c r="O23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>113</v>
       </c>
@@ -3878,29 +3951,32 @@
       <c r="I24" t="s">
         <v>102</v>
       </c>
-      <c r="J24">
-        <v>12.778860999999999</v>
+      <c r="J24" t="s">
+        <v>88</v>
       </c>
       <c r="K24">
         <v>12.778860999999999</v>
       </c>
       <c r="L24">
-        <f>M24*0.8</f>
+        <v>12.778860999999999</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
         <v>10.223088799999999</v>
       </c>
-      <c r="M24">
-        <f>(J24*0.85)+(K24*0.15)</f>
+      <c r="N24">
+        <f t="shared" si="1"/>
         <v>12.778860999999999</v>
       </c>
-      <c r="N24">
-        <f>M24*1.2</f>
+      <c r="O24">
+        <f t="shared" si="2"/>
         <v>15.334633199999999</v>
       </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>114</v>
       </c>
@@ -3928,29 +4004,32 @@
       <c r="I25" t="s">
         <v>88</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25">
         <v>2.7513524999999999</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4.5365219999999997</v>
       </c>
-      <c r="L25">
-        <f>M25*0.8</f>
+      <c r="M25">
+        <f t="shared" si="0"/>
         <v>2.4153023400000002</v>
       </c>
-      <c r="M25">
-        <f>(J25*0.85)+(K25*0.15)</f>
+      <c r="N25">
+        <f t="shared" si="1"/>
         <v>3.0191279249999998</v>
       </c>
-      <c r="N25">
-        <f>M25*1.2</f>
+      <c r="O25">
+        <f t="shared" si="2"/>
         <v>3.6229535099999994</v>
       </c>
-      <c r="O25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>115</v>
       </c>
@@ -3978,29 +4057,32 @@
       <c r="I26" t="s">
         <v>88</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26">
         <v>1.9298036000000001</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>2.4375486</v>
       </c>
-      <c r="L26">
-        <f>M26*0.8</f>
+      <c r="M26">
+        <f t="shared" si="0"/>
         <v>1.6047722800000004</v>
       </c>
-      <c r="M26">
-        <f>(J26*0.85)+(K26*0.15)</f>
+      <c r="N26">
+        <f t="shared" si="1"/>
         <v>2.0059653500000003</v>
       </c>
-      <c r="N26">
-        <f>M26*1.2</f>
+      <c r="O26">
+        <f t="shared" si="2"/>
         <v>2.4071584200000005</v>
       </c>
-      <c r="O26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>116</v>
       </c>
@@ -4028,29 +4110,32 @@
       <c r="I27" t="s">
         <v>88</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27">
         <v>3.4672963999999999</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4.852373</v>
       </c>
-      <c r="L27">
-        <f>M27*0.8</f>
+      <c r="M27">
+        <f t="shared" si="0"/>
         <v>2.9400463119999998</v>
       </c>
-      <c r="M27">
-        <f>(J27*0.85)+(K27*0.15)</f>
+      <c r="N27">
+        <f t="shared" si="1"/>
         <v>3.6750578899999997</v>
       </c>
-      <c r="N27">
-        <f>M27*1.2</f>
+      <c r="O27">
+        <f t="shared" si="2"/>
         <v>4.4100694679999997</v>
       </c>
-      <c r="O27" s="7" t="s">
+      <c r="P27" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>118</v>
       </c>
@@ -4078,29 +4163,32 @@
       <c r="I28" t="s">
         <v>88</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="s">
+        <v>88</v>
+      </c>
+      <c r="K28">
         <v>1.2057935</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.3585626</v>
       </c>
-      <c r="L28">
-        <f>M28*0.8</f>
+      <c r="M28">
+        <f t="shared" si="0"/>
         <v>0.98296709199999999</v>
       </c>
-      <c r="M28">
-        <f>(J28*0.85)+(K28*0.15)</f>
+      <c r="N28">
+        <f t="shared" si="1"/>
         <v>1.228708865</v>
       </c>
-      <c r="N28">
-        <f>M28*1.2</f>
+      <c r="O28">
+        <f t="shared" si="2"/>
         <v>1.474450638</v>
       </c>
-      <c r="O28" s="7" t="s">
+      <c r="P28" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -4128,29 +4216,32 @@
       <c r="I29" t="s">
         <v>88</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="s">
+        <v>88</v>
+      </c>
+      <c r="K29">
         <v>2.7934405999999998</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>3.6054539999999999</v>
       </c>
-      <c r="L29">
-        <f>M29*0.8</f>
+      <c r="M29">
+        <f t="shared" si="0"/>
         <v>2.3321940880000001</v>
       </c>
-      <c r="M29">
-        <f>(J29*0.85)+(K29*0.15)</f>
+      <c r="N29">
+        <f t="shared" si="1"/>
         <v>2.91524261</v>
       </c>
-      <c r="N29">
-        <f>M29*1.2</f>
+      <c r="O29">
+        <f t="shared" si="2"/>
         <v>3.4982911319999999</v>
       </c>
-      <c r="O29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>120</v>
       </c>
@@ -4178,29 +4269,32 @@
       <c r="I30" t="s">
         <v>88</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="s">
+        <v>88</v>
+      </c>
+      <c r="K30">
         <v>3.2896230000000002</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>5.5601099999999999</v>
       </c>
-      <c r="L30">
-        <f>M30*0.8</f>
+      <c r="M30">
+        <f t="shared" si="0"/>
         <v>2.9041568400000006</v>
       </c>
-      <c r="M30">
-        <f>(J30*0.85)+(K30*0.15)</f>
+      <c r="N30">
+        <f t="shared" si="1"/>
         <v>3.6301960500000003</v>
       </c>
-      <c r="N30">
-        <f>M30*1.2</f>
+      <c r="O30">
+        <f t="shared" si="2"/>
         <v>4.3562352600000001</v>
       </c>
-      <c r="O30" s="7" t="s">
+      <c r="P30" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>119</v>
       </c>
@@ -4228,29 +4322,32 @@
       <c r="I31" t="s">
         <v>88</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="s">
+        <v>88</v>
+      </c>
+      <c r="K31">
         <v>0.29746224999999998</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.1300566999999999</v>
       </c>
-      <c r="L31">
-        <f>M31*0.8</f>
+      <c r="M31">
+        <f t="shared" si="0"/>
         <v>0.33788113399999997</v>
       </c>
-      <c r="M31">
-        <f>(J31*0.85)+(K31*0.15)</f>
+      <c r="N31">
+        <f t="shared" si="1"/>
         <v>0.42235141749999994</v>
       </c>
-      <c r="N31">
-        <f>M31*1.2</f>
+      <c r="O31">
+        <f t="shared" si="2"/>
         <v>0.5068217009999999</v>
       </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -4278,29 +4375,32 @@
       <c r="I32" t="s">
         <v>88</v>
       </c>
-      <c r="J32">
+      <c r="J32" t="s">
+        <v>88</v>
+      </c>
+      <c r="K32">
         <v>1.2802585</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>1.4298040000000001</v>
       </c>
-      <c r="L32">
-        <f>M32*0.8</f>
+      <c r="M32">
+        <f t="shared" si="0"/>
         <v>1.0421522599999999</v>
       </c>
-      <c r="M32">
-        <f>(J32*0.85)+(K32*0.15)</f>
+      <c r="N32">
+        <f t="shared" si="1"/>
         <v>1.3026903249999999</v>
       </c>
-      <c r="N32">
-        <f>M32*1.2</f>
+      <c r="O32">
+        <f t="shared" si="2"/>
         <v>1.5632283899999999</v>
       </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -4328,29 +4428,32 @@
       <c r="I33" t="s">
         <v>88</v>
       </c>
-      <c r="J33">
+      <c r="J33" t="s">
+        <v>88</v>
+      </c>
+      <c r="K33">
         <v>2.2547722000000001</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>4.1039139999999996</v>
       </c>
-      <c r="L33">
-        <f>M33*0.8</f>
+      <c r="M33">
+        <f t="shared" si="0"/>
         <v>2.0257147760000005</v>
       </c>
-      <c r="M33">
-        <f>(J33*0.85)+(K33*0.15)</f>
+      <c r="N33">
+        <f t="shared" si="1"/>
         <v>2.5321434700000003</v>
       </c>
-      <c r="N33">
-        <f>M33*1.2</f>
+      <c r="O33">
+        <f t="shared" si="2"/>
         <v>3.0385721640000001</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="P33" s="7" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -4378,29 +4481,32 @@
       <c r="I34" t="s">
         <v>88</v>
       </c>
-      <c r="J34">
+      <c r="J34" t="s">
+        <v>88</v>
+      </c>
+      <c r="K34">
         <v>0.44434652000000002</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.87593049999999995</v>
       </c>
-      <c r="L34">
-        <f>M34*0.8</f>
+      <c r="M34">
+        <f t="shared" si="0"/>
         <v>0.40726729360000002</v>
       </c>
-      <c r="M34">
-        <f>(J34*0.85)+(K34*0.15)</f>
+      <c r="N34">
+        <f t="shared" si="1"/>
         <v>0.509084117</v>
       </c>
-      <c r="N34">
-        <f>M34*1.2</f>
+      <c r="O34">
+        <f t="shared" si="2"/>
         <v>0.61090094039999998</v>
       </c>
-      <c r="O34" s="7" t="s">
+      <c r="P34" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>124</v>
       </c>
@@ -4428,29 +4534,32 @@
       <c r="I35" t="s">
         <v>88</v>
       </c>
-      <c r="J35">
+      <c r="J35" t="s">
+        <v>88</v>
+      </c>
+      <c r="K35">
         <v>1.2441818</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>3.7463169999999999</v>
       </c>
-      <c r="L35">
-        <f>M35*0.8</f>
+      <c r="M35">
+        <f t="shared" si="0"/>
         <v>1.2956016640000001</v>
       </c>
-      <c r="M35">
-        <f>(J35*0.85)+(K35*0.15)</f>
+      <c r="N35">
+        <f t="shared" si="1"/>
         <v>1.61950208</v>
       </c>
-      <c r="N35">
-        <f>M35*1.2</f>
+      <c r="O35">
+        <f t="shared" si="2"/>
         <v>1.9434024959999998</v>
       </c>
-      <c r="O35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>125</v>
       </c>
@@ -4478,29 +4587,32 @@
       <c r="I36" t="s">
         <v>102</v>
       </c>
-      <c r="J36">
-        <v>10.700315</v>
+      <c r="J36" t="s">
+        <v>88</v>
       </c>
       <c r="K36">
         <v>10.700315</v>
       </c>
       <c r="L36">
-        <f>M36*0.8</f>
+        <v>10.700315</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
         <v>8.5602520000000002</v>
       </c>
-      <c r="M36">
-        <f>(J36*0.85)+(K36*0.15)</f>
+      <c r="N36">
+        <f t="shared" si="1"/>
         <v>10.700315</v>
       </c>
-      <c r="N36">
-        <f>M36*1.2</f>
+      <c r="O36">
+        <f t="shared" si="2"/>
         <v>12.840377999999999</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="P36" s="7" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>205</v>
       </c>
@@ -4528,30 +4640,33 @@
       <c r="I37" t="s">
         <v>88</v>
       </c>
-      <c r="J37">
+      <c r="J37" t="s">
+        <v>88</v>
+      </c>
+      <c r="K37">
         <v>1.9652514000000001</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>1.8229318999999999</v>
       </c>
-      <c r="L37">
-        <f>M37*0.8</f>
+      <c r="M37">
+        <f t="shared" si="0"/>
         <v>1.55512278</v>
       </c>
-      <c r="M37">
-        <f>(J37*0.85)+(K37*0.15)</f>
+      <c r="N37">
+        <f t="shared" si="1"/>
         <v>1.9439034749999999</v>
       </c>
-      <c r="N37">
-        <f>M37*1.2</f>
+      <c r="O37">
+        <f t="shared" si="2"/>
         <v>2.3326841699999998</v>
       </c>
-      <c r="O37" s="7" t="s">
+      <c r="P37" s="7" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O37">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P37">
     <sortCondition ref="B2:B37"/>
     <sortCondition ref="A2:A37"/>
   </sortState>
@@ -4563,8 +4678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB265D36-0C7F-5A44-9F41-51B4E7F5BF4C}">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
